--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2017_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2017_top_box_office.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$517,218,368</t>
+          <t>$620,181,382</t>
         </is>
       </c>
     </row>
@@ -484,108 +484,108 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Guardians of the Galaxy Vol. 2</t>
+          <t>Jumanji: Welcome to the Jungle</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$389,813,101</t>
+          <t>$404,515,480</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spider-Man: Homecoming</t>
+          <t>Guardians of the Galaxy Vol. 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$334,201,140</t>
+          <t>$389,813,101</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>It</t>
+          <t>Spider-Man: Homecoming</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$327,481,748</t>
+          <t>$334,201,140</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thor: Ragnarok</t>
+          <t>It</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$311,225,150</t>
+          <t>$327,481,748</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Despicable Me 3</t>
+          <t>Thor: Ragnarok</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$264,624,300</t>
+          <t>$315,058,289</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Despicable Me 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$226,277,068</t>
+          <t>$264,624,300</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Fate of the Furious</t>
+          <t>Justice League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$226,008,385</t>
+          <t>$229,024,295</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Justice League</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$225,546,295</t>
+          <t>$226,277,068</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dunkirk</t>
+          <t>The Fate of the Furious</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$188,045,546</t>
+          <t>$226,008,385</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$179,834,199</t>
+          <t>$210,460,015</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Lego Batman Movie</t>
+          <t>Dunkirk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$175,750,384</t>
+          <t>$188,045,546</t>
         </is>
       </c>
     </row>
@@ -621,67 +621,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$175,686,870</t>
+          <t>$176,040,665</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Boss Baby</t>
+          <t>The Lego Batman Movie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$175,003,033</t>
+          <t>$175,750,384</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pirates of the Caribbean: Dead Men Tell No Tales</t>
+          <t>The Boss Baby</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$172,558,876</t>
+          <t>$175,003,033</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jumanji: Welcome to the Jungle</t>
+          <t>The Greatest Showman</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$170,863,915</t>
+          <t>$174,340,174</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kong: Skull Island</t>
+          <t>Pirates of the Caribbean: Dead Men Tell No Tales</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$168,052,812</t>
+          <t>$172,558,876</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hidden Figures</t>
+          <t>Kong: Skull Island</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$167,620,331</t>
+          <t>$168,052,812</t>
         </is>
       </c>
     </row>
@@ -724,96 +724,96 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Transformers: The Last Knight</t>
+          <t>Wonder</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$130,168,683</t>
+          <t>$132,422,809</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rogue One: A Star Wars Story</t>
+          <t>Transformers: The Last Knight</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$123,941,474</t>
+          <t>$130,168,683</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wonder</t>
+          <t>Girls Trip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$121,559,294</t>
+          <t>$115,171,585</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>La La Land</t>
+          <t>Fifty Shades Darker</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$120,121,532</t>
+          <t>$114,581,250</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sing</t>
+          <t>Baby Driver</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$117,541,430</t>
+          <t>$107,825,862</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Girls Trip</t>
+          <t>Pitch Perfect 3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$115,171,585</t>
+          <t>$104,897,530</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fifty Shades Darker</t>
+          <t>Daddy's Home 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$114,581,250</t>
+          <t>$104,029,443</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Baby Driver</t>
+          <t>Murder on the Orient Express</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$107,825,862</t>
+          <t>$102,826,543</t>
         </is>
       </c>
     </row>
@@ -832,84 +832,84 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daddy's Home 2</t>
+          <t>Kingsman: The Golden Circle</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$101,791,381</t>
+          <t>$100,229,647</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Murder on the Orient Express</t>
+          <t>Blade Runner 2049</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$100,619,624</t>
+          <t>$92,054,159</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kingsman: The Golden Circle</t>
+          <t>John Wick: Chapter 2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$100,225,686</t>
+          <t>$92,029,184</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>John Wick: Chapter 2</t>
+          <t>The Emoji Movie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$92,029,184</t>
+          <t>$86,089,513</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Blade Runner 2049</t>
+          <t>Power Rangers</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$91,654,512</t>
+          <t>$85,364,450</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The Emoji Movie</t>
+          <t>Ferdinand</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$86,089,513</t>
+          <t>$84,410,380</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Power Rangers</t>
+          <t>The Post</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$85,364,450</t>
+          <t>$81,903,458</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$71,891,988</t>
+          <t>$72,110,659</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pitch Perfect 3</t>
+          <t>The Shape of Water</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$63,300,605</t>
+          <t>$63,859,435</t>
         </is>
       </c>
     </row>
@@ -1036,96 +1036,96 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Happy Death Day</t>
+          <t>Darkest Hour</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$55,683,845</t>
+          <t>$56,468,410</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ferdinand</t>
+          <t>Happy Death Day</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$53,546,717</t>
+          <t>$55,683,845</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Atomic Blonde</t>
+          <t>Three Billboards Outside Ebbing, Missouri</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$51,687,870</t>
+          <t>$54,513,740</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>American Made</t>
+          <t>Atomic Blonde</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$51,342,000</t>
+          <t>$51,687,870</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The Dark Tower</t>
+          <t>American Made</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$50,701,325</t>
+          <t>$51,342,000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Greatest Showman</t>
+          <t>The Dark Tower</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$49,036,718</t>
+          <t>$50,701,325</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Boo 2! A Madea Halloween</t>
+          <t>Lady Bird</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$47,319,572</t>
+          <t>$48,958,273</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Boo 2! A Madea Halloween</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$46,435,205</t>
+          <t>$47,319,572</t>
         </is>
       </c>
     </row>
@@ -1204,48 +1204,48 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Passengers</t>
+          <t>47 Meters Down</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$44,634,490</t>
+          <t>$44,307,191</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>47 Meters Down</t>
+          <t>The Big Sick</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$44,307,191</t>
+          <t>$42,873,127</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Big Sick</t>
+          <t>Valerian and the City of a Thousand Planets</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$42,873,127</t>
+          <t>$41,189,488</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Moana</t>
+          <t>The Star</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$42,279,566</t>
+          <t>$40,852,824</t>
         </is>
       </c>
     </row>
@@ -1264,396 +1264,396 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Valerian and the City of a Thousand Planets</t>
+          <t>King Arthur: Legend of the Sword</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$40,479,370</t>
+          <t>$39,175,066</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The Star</t>
+          <t>Jigsaw</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$39,963,949</t>
+          <t>$38,052,832</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>King Arthur: Legend of the Sword</t>
+          <t>American Assassin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$39,175,066</t>
+          <t>$36,249,674</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jigsaw</t>
+          <t>The Foreigner</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$38,052,832</t>
+          <t>$34,393,507</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>American Assassin</t>
+          <t>Everything, Everything</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$36,249,674</t>
+          <t>$34,121,140</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>The Foreigner</t>
+          <t>Wind River</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$34,393,507</t>
+          <t>$33,800,859</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Everything, Everything</t>
+          <t>Geostorm</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$34,121,140</t>
+          <t>$33,700,160</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Wind River</t>
+          <t>Monster Trucks</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$33,800,859</t>
+          <t>$33,370,166</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Geostorm</t>
+          <t>Fist Fight</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$33,578,782</t>
+          <t>$32,187,017</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Monster Trucks</t>
+          <t>How to Be a Latin Lover</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$33,370,166</t>
+          <t>$32,149,404</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fist Fight</t>
+          <t>Kidnap</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$32,187,017</t>
+          <t>$30,971,040</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>How to Be a Latin Lover</t>
+          <t>Underworld: Blood Wars</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$32,149,404</t>
+          <t>$30,353,973</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>The Mountain Between Us</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$31,432,462</t>
+          <t>$30,348,555</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fences</t>
+          <t>Life</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$31,351,933</t>
+          <t>$30,234,022</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Patriots Day</t>
+          <t>I, Tonya</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$31,319,806</t>
+          <t>$30,014,539</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kidnap</t>
+          <t>Hostiles</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$30,971,040</t>
+          <t>$29,819,114</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Underworld: Blood Wars</t>
+          <t>Molly's Game</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$30,353,973</t>
+          <t>$28,780,744</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Mountain Between Us</t>
+          <t>The Nut Job 2: Nutty by Nature</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$30,348,555</t>
+          <t>$28,370,522</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Life</t>
+          <t>Rings</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$30,234,022</t>
+          <t>$27,793,018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Why Him?</t>
+          <t>Logan Lucky</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$29,689,870</t>
+          <t>$27,780,977</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Nut Job 2: Nutty by Nature</t>
+          <t>Home Again</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$28,370,522</t>
+          <t>$27,020,284</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rings</t>
+          <t>Resident Evil: The Final Chapter</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$27,793,018</t>
+          <t>$26,830,068</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Logan Lucky</t>
+          <t>The House</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$27,780,977</t>
+          <t>$25,584,504</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Home Again</t>
+          <t>All the Money in the World</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$27,020,284</t>
+          <t>$25,113,707</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Resident Evil: The Final Chapter</t>
+          <t>Gifted</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$26,830,068</t>
+          <t>$24,801,212</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The House</t>
+          <t>Downsizing</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$25,584,504</t>
+          <t>$24,449,754</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gifted</t>
+          <t>The Bye Bye Man</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$24,801,212</t>
+          <t>$22,395,806</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Three Billboards Outside Ebbing, Missouri</t>
+          <t>Victoria &amp; Abdul</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$24,164,629</t>
+          <t>$22,245,070</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Bye Bye Man</t>
+          <t>Rough Night</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$22,395,806</t>
+          <t>$22,105,643</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Victoria &amp; Abdul</t>
+          <t>My Little Pony: The Movie</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$22,233,285</t>
+          <t>$21,885,107</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rough Night</t>
+          <t>Leap!2017 Re-release</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$22,105,643</t>
+          <t>$21,858,070</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>My Little Pony: The Movie</t>
+          <t>Phantom Thread</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$21,885,107</t>
+          <t>$21,198,205</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Leap!2017 Re-release</t>
+          <t>The Disaster Artist</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$21,858,070</t>
+          <t>$21,120,616</t>
         </is>
       </c>
     </row>
@@ -1684,1164 +1684,1164 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Manchester by the Sea</t>
+          <t>The Circle</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$20,640,332</t>
+          <t>$20,497,844</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>The Circle</t>
+          <t>Baahubali 2: The Conclusion</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$20,497,844</t>
+          <t>$20,186,659</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Baahubali 2: The Conclusion</t>
+          <t>CHIPS</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$20,186,659</t>
+          <t>$18,600,152</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHIPS</t>
+          <t>Only the Brave</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$18,600,152</t>
+          <t>$18,343,983</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Assassin's Creed</t>
+          <t>Call Me by Your Name</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$18,232,781</t>
+          <t>$18,095,701</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Only the Brave</t>
+          <t>Mother!</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$18,181,288</t>
+          <t>$17,800,004</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Darkest Hour</t>
+          <t>The Zookeeper's Wife</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$18,132,857</t>
+          <t>$17,571,660</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Disaster Artist</t>
+          <t>Father Figures</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$17,861,795</t>
+          <t>$17,501,244</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mother!</t>
+          <t>The Glass Castle</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$17,800,004</t>
+          <t>$17,273,059</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Zookeeper's Wife</t>
+          <t>Flatliners</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$17,571,660</t>
+          <t>$16,883,115</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>The Glass Castle</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$17,273,059</t>
+          <t>$16,790,139</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Downsizing</t>
+          <t>The Case for Christ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$17,160,674</t>
+          <t>$14,682,684</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Flatliners</t>
+          <t>Wish Upon</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$16,883,115</t>
+          <t>$14,301,505</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>It Comes at Night</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$16,790,139</t>
+          <t>$13,985,117</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>The Shape of Water</t>
+          <t>Born in China</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$15,670,177</t>
+          <t>$13,873,211</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Moonlight</t>
+          <t>Megan Leavey</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$15,365,833</t>
+          <t>$13,406,883</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>The Case for Christ</t>
+          <t>The Founder</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$14,682,684</t>
+          <t>$12,786,053</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wish Upon</t>
+          <t>Battle of the Sexes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$14,301,505</t>
+          <t>$12,638,526</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>It Comes at Night</t>
+          <t>Before I Fall</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$13,985,117</t>
+          <t>$12,241,122</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Born in China</t>
+          <t>Roman J. Israel, Esq.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$13,873,211</t>
+          <t>$11,962,778</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Megan Leavey</t>
+          <t>Unforgettable</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$13,406,304</t>
+          <t>$11,368,012</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Father Figures</t>
+          <t>The Beguiled</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$12,885,287</t>
+          <t>$10,709,995</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>The Founder</t>
+          <t>The Belko Experiment</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$12,786,053</t>
+          <t>$10,166,820</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>All the Money in the World</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$12,712,380</t>
+          <t>$10,051,659</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battle of the Sexes</t>
+          <t>Thank You for Your Service</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$12,638,526</t>
+          <t>$9,536,300</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Before I Fall</t>
+          <t>Rock Dog</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$12,241,122</t>
+          <t>$9,420,546</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Roman J. Israel, Esq.</t>
+          <t>The Lost City of Z</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$11,851,274</t>
+          <t>$8,580,410</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Unforgettable</t>
+          <t>The Promise</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$11,368,012</t>
+          <t>$8,224,288</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Fantastic Beasts and Where to Find Them</t>
+          <t>A Cure for Wellness</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$11,362,002</t>
+          <t>$8,106,986</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>The Beguiled</t>
+          <t>The Space Between Us</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$10,709,995</t>
+          <t>$7,885,294</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Live by Night</t>
+          <t>Let There Be Light</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$10,283,585</t>
+          <t>$7,233,471</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Belko Experiment</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$10,166,820</t>
+          <t>$7,227,038</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Thank You for Your Service</t>
+          <t>I Am Not Your Negro</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$9,536,300</t>
+          <t>$7,123,919</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Beatriz at Dinner</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$9,468,318</t>
+          <t>$7,115,854</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Rock Dog</t>
+          <t>Birth of the Dragon</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$9,420,546</t>
+          <t>$6,901,965</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>Loving Vincent</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$8,870,040</t>
+          <t>$6,735,118</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>The Lost City of Z</t>
+          <t>The Snowman</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$8,580,410</t>
+          <t>$6,700,035</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>The Promise</t>
+          <t>Same Kind of Different as Me</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$8,224,288</t>
+          <t>$6,423,605</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A Cure for Wellness</t>
+          <t>Lowriders</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$8,106,986</t>
+          <t>$6,303,560</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>The Space Between Us</t>
+          <t>Maudie</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$7,885,294</t>
+          <t>$6,170,998</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Jackie</t>
+          <t>Just Getting Started</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$7,490,669</t>
+          <t>$6,069,605</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>The Florida Project</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$7,227,038</t>
+          <t>$5,904,366</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Let There Be Light</t>
+          <t>All Saints</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$7,208,088</t>
+          <t>$5,802,208</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>I Am Not Your Negro</t>
+          <t>Suburbicon</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$7,123,919</t>
+          <t>$5,775,178</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Beatriz at Dinner</t>
+          <t>The Man Who Invented Christmas</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$7,115,854</t>
+          <t>$5,676,486</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Birth of the Dragon</t>
+          <t>Paris Can Wait</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$6,901,965</t>
+          <t>$5,617,731</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Silence</t>
+          <t>Tiger Zinda Hai</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$6,823,622</t>
+          <t>$5,560,921</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The Snowman</t>
+          <t>Your Name.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$6,700,035</t>
+          <t>$5,017,246</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Collateral Beauty</t>
+          <t>The Book of Henry</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$6,673,543</t>
+          <t>$4,504,974</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Same Kind of Different as Me</t>
+          <t>Stronger</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$6,394,006</t>
+          <t>$4,211,129</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lowriders</t>
+          <t>The Hero</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$6,303,560</t>
+          <t>$4,077,333</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Loving Vincent</t>
+          <t>Sleight</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$6,240,935</t>
+          <t>$3,986,245</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Maudie</t>
+          <t>A United Kingdom</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$6,171,598</t>
+          <t>$3,902,185</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Just Getting Started</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$6,034,990</t>
+          <t>$3,814,868</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>All Saints</t>
+          <t>Friend Request</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$5,802,208</t>
+          <t>$3,759,078</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Suburbicon</t>
+          <t>Table 19</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$5,775,178</t>
+          <t>$3,614,896</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Paris Can Wait</t>
+          <t>Their Finest</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$5,617,731</t>
+          <t>$3,603,484</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>The Man Who Invented Christmas</t>
+          <t>Phoenix Forgotten</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$5,575,759</t>
+          <t>$3,600,146</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20th Century Women</t>
+          <t>An Inconvenient Sequel: Truth to Power</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$5,526,783</t>
+          <t>$3,496,795</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Molly's Game</t>
+          <t>Til Death Do Us Part</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$5,377,480</t>
+          <t>$3,455,267</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Florida Project</t>
+          <t>Raees</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$5,297,299</t>
+          <t>$3,262,954</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Your Name.</t>
+          <t>The Leisure Seeker</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$5,017,246</t>
+          <t>$3,226,443</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Office Christmas Party</t>
+          <t>Close Encounters of the Third Kind2017 Re-release</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$4,952,318</t>
+          <t>$3,100,479</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A Beautiful Planet</t>
+          <t>Colossal</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$4,676,580</t>
+          <t>$3,029,287</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Tiger Zinda Hai</t>
+          <t>Ingrid Goes West</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$4,572,231</t>
+          <t>$3,024,308</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Call Me by Your Name</t>
+          <t>Leap!</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$4,516,120</t>
+          <t>$2,844,490</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>The Book of Henry</t>
+          <t>The Oscar Nominated Short Films 2017: Live Action</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$4,504,974</t>
+          <t>$2,835,355</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Stronger</t>
+          <t>Kedi</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$4,211,129</t>
+          <t>$2,835,047</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>The Hero</t>
+          <t>Wolf Warrior 2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$4,077,333</t>
+          <t>$2,721,100</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Dangal</t>
+          <t>My Cousin Rachel</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$4,037,118</t>
+          <t>$2,716,368</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sleight</t>
+          <t>Showtime Championship Boxing: Floyd Mayweather vs. Conor McGregor</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$3,986,245</t>
+          <t>$2,620,183</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A United Kingdom</t>
+          <t>A Question of Faith</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$3,902,185</t>
+          <t>$2,587,072</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Norman</t>
+          <t>Is Genesis History?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$3,814,868</t>
+          <t>$2,570,392</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Friend Request</t>
+          <t>Disney's Newsies: The Broadway Musical!</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$3,759,078</t>
+          <t>$2,545,060</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A Monster Calls</t>
+          <t>IN OUR HANDS: Battle for Jerusalem</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$3,676,757</t>
+          <t>$2,534,370</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Table 19</t>
+          <t>Do It Like An Hombre</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$3,614,896</t>
+          <t>$2,534,252</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Their Finest</t>
+          <t>LBJ</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,603,484</t>
+          <t>$2,470,979</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Phoenix Forgotten</t>
+          <t>Tulip Fever</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,600,146</t>
+          <t>$2,455,635</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Trolls</t>
+          <t>The Salesman</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,576,772</t>
+          <t>$2,402,067</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>An Inconvenient Sequel: Truth to Power</t>
+          <t>T2 Trainspotting</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$3,496,795</t>
+          <t>$2,402,004</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Til Death Do Us Part</t>
+          <t>Pokémon the Movie: I Choose You!</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$3,455,268</t>
+          <t>$2,401,722</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Raees</t>
+          <t>Jeepers Creepers III</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$3,262,954</t>
+          <t>$2,335,162</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Close Encounters of the Third Kind2017 Re-release</t>
+          <t>The Resurrection of Gavin Stone</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$3,100,479</t>
+          <t>$2,303,792</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Colossal</t>
+          <t>The Killing of a Sacred Deer</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$3,029,287</t>
+          <t>$2,291,901</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ingrid Goes West</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$3,024,308</t>
+          <t>$2,280,004</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Leap!</t>
+          <t>The Lovers</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$2,844,490</t>
+          <t>$2,194,521</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>The Oscar Nominated Short Films 2017: Live Action</t>
+          <t>The Patriarch</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$2,835,355</t>
+          <t>$2,156,047</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kedi</t>
+          <t>Brad's Status</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$2,835,047</t>
+          <t>$2,133,158</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Doctor Strange</t>
+          <t>Good Time</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$2,765,583</t>
+          <t>$2,026,499</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hacksaw Ridge</t>
+          <t>The Bride of Badrinath</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$2,746,401</t>
+          <t>$1,993,259</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Wolf Warrior 2</t>
+          <t>Everybody Loves Somebody</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$2,721,100</t>
+          <t>$1,915,789</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>My Cousin Rachel</t>
+          <t>Along With the Gods: The Two Worlds</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$2,716,368</t>
+          <t>$1,908,823</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Showtime Championship Boxing: Floyd Mayweather vs. Conor McGregor</t>
+          <t>Youth</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$2,620,183</t>
+          <t>$1,891,956</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A Question of Faith</t>
+          <t>A Quiet Passion</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$2,587,072</t>
+          <t>$1,865,396</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Is Genesis History?</t>
+          <t>Toilet: A Love Story</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$2,570,392</t>
+          <t>$1,830,715</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Disney's Newsies: The Broadway Musical!</t>
+          <t>The Wall</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$2,545,060</t>
+          <t>$1,803,064</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IN OUR HANDS: Battle for Jerusalem</t>
+          <t>Free Fire</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$2,534,370</t>
+          <t>$1,799,312</t>
         </is>
       </c>
     </row>
